--- a/Resources/Housing_Market_Indicators.xlsx
+++ b/Resources/Housing_Market_Indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushiparikh/Desktop/Analysis_Projects_Folder/Project_Group_12/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07ED99C-61C8-2847-907B-10E2960EDE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4C1FA-B3F5-3E49-A9F5-EE907A0ED0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="4" xr2:uid="{910BAA4C-A214-EF40-B786-853FC7B680A1}"/>
   </bookViews>
@@ -39,22 +39,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
-    <t>Real Median After-Tax Household Income ($)</t>
+    <t>Years</t>
   </si>
   <si>
-    <t>Consumer Price Index (% Change)</t>
+    <t>Real_Median_Household_Income</t>
   </si>
   <si>
-    <t>Labour Force Participation Rate (%)</t>
+    <t>Labour_Force_Participation_Rate</t>
   </si>
   <si>
-    <t>Unemployment Rate (%)</t>
+    <t>Unemployment_Rate</t>
   </si>
   <si>
-    <t>Real Disposal Income (% Change)</t>
+    <t>Real_Disposal_Income_Percent_Change</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>Consumer_Price_Index_Percent_Change</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,15 +151,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -212,7 +203,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -252,39 +243,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -603,31 +599,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D53BB-1FF7-9145-BB98-5C9A4A548A2B}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
@@ -639,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -658,18 +654,8 @@
       <c r="F2" s="13">
         <v>6.0897158133262197</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -688,18 +674,8 @@
       <c r="F3" s="13">
         <v>3.8963367913060698</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -718,18 +694,20 @@
       <c r="F4" s="13">
         <v>4.1133062242194596</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -748,18 +726,20 @@
       <c r="F5" s="13">
         <v>2.4230668222924701</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -778,18 +758,20 @@
       <c r="F6" s="13">
         <v>3.49796841765825</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
@@ -808,18 +790,20 @@
       <c r="F7" s="13">
         <v>1.4898388943752301</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -838,18 +822,20 @@
       <c r="F8" s="13">
         <v>2.6953547256274</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2013</v>
       </c>
@@ -868,18 +854,20 @@
       <c r="F9" s="13">
         <v>3.1825104007724199</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2014</v>
       </c>
@@ -898,8 +886,20 @@
       <c r="F10" s="13">
         <v>1.22449859703575</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -918,8 +918,20 @@
       <c r="F11" s="13">
         <v>3.36078014088223</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -937,7 +949,7 @@
       </c>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -949,7 +961,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -961,7 +973,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -973,7 +985,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -997,7 +1009,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,22 +1023,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1066,7 +1078,7 @@
       <c r="E3" s="5">
         <v>6.4</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>3.6042702676256102</v>
       </c>
     </row>
@@ -1083,21 +1095,21 @@
       <c r="D4" s="4">
         <v>67.716666666666598</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>6.6</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="4">
         <v>2.8612297591579599</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1112,21 +1124,21 @@
       <c r="D5" s="4">
         <v>66.983333333333306</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>9.1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="4">
         <v>4.0832546564485304</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1141,21 +1153,18 @@
       <c r="D6" s="4">
         <v>66.849999999999895</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="4">
         <v>3.18433544652135</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1170,21 +1179,18 @@
       <c r="D7" s="4">
         <v>66.625</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>7.9</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="4">
         <v>8.3459808260179597E-2</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1199,21 +1205,18 @@
       <c r="D8" s="4">
         <v>66.158333333333303</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>7.9</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="4">
         <v>0.98129362619800797</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -1228,21 +1231,18 @@
       <c r="D9" s="4">
         <v>66.258333333333297</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>7.6</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="4">
         <v>2.5108985199635998</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -1257,21 +1257,12 @@
       <c r="D10" s="4">
         <v>65.841666666666598</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>7.3</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="4">
         <v>0.57235382891157704</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1286,10 +1277,10 @@
       <c r="D11" s="4">
         <v>65.233333333333306</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>6.8</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="4">
         <v>3.51024816103476</v>
       </c>
     </row>
@@ -1309,7 +1300,7 @@
       <c r="E12" s="5">
         <v>6.5</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -1354,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC0ADA4-0554-2346-A58A-8FCAA728B054}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1370,36 +1361,27 @@
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -1418,17 +1400,8 @@
       <c r="F2" s="4">
         <v>8.3118745939212904</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -1447,17 +1420,8 @@
       <c r="F3" s="4">
         <v>5.0309719744489998</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1476,17 +1440,16 @@
       <c r="F4" s="4">
         <v>2.9597567063766799</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -1505,17 +1468,16 @@
       <c r="F5" s="4">
         <v>0.87800689734564696</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -1534,17 +1496,13 @@
       <c r="F6" s="4">
         <v>3.5885122829874199</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
@@ -1563,17 +1521,13 @@
       <c r="F7" s="4">
         <v>1.5762454978403899</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1592,17 +1546,13 @@
       <c r="F8" s="4">
         <v>2.9520517948885598</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2013</v>
       </c>
@@ -1621,17 +1571,13 @@
       <c r="F9" s="4">
         <v>4.9182116103619604</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2014</v>
       </c>
@@ -1650,17 +1596,8 @@
       <c r="F10" s="4">
         <v>1.6990680800290301</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -1679,17 +1616,8 @@
       <c r="F11" s="4">
         <v>4.5572590016505403</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -1706,17 +1634,8 @@
         <v>6</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -1728,7 +1647,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -1740,7 +1659,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -1759,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1646BCDD-7433-5C4C-B6E4-4B7C134AD0A2}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,27 +1693,27 @@
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -1813,18 +1732,8 @@
       <c r="F2" s="4">
         <v>10.909697032142599</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -1843,18 +1752,8 @@
       <c r="F3" s="4">
         <v>2.4814772781918801</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -1873,18 +1772,16 @@
       <c r="F4" s="4">
         <v>5.2084375341020603</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -1903,18 +1800,16 @@
       <c r="F5" s="4">
         <v>-1.4054180418279799E-2</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -1933,18 +1828,13 @@
       <c r="F6" s="4">
         <v>5.5384112059097097</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
@@ -1963,18 +1853,13 @@
       <c r="F7" s="4">
         <v>4.0232035529012</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -1993,18 +1878,13 @@
       <c r="F8" s="4">
         <v>7.7390323840078104</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2013</v>
       </c>
@@ -2023,18 +1903,13 @@
       <c r="F9" s="4">
         <v>4.93358655948298</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2014</v>
       </c>
@@ -2053,18 +1928,8 @@
       <c r="F10" s="4">
         <v>3.7152655764764799</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -2084,7 +1949,7 @@
         <v>2.8378961337575901</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -2102,7 +1967,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -2114,7 +1979,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -2126,7 +1991,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
@@ -2145,9 +2010,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A970BC-7387-4342-A6B4-FFD9E0E1633D}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2158,27 +2025,27 @@
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2006</v>
       </c>
@@ -2197,17 +2064,8 @@
       <c r="F2" s="4">
         <v>4.1752870280041003</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2007</v>
       </c>
@@ -2226,17 +2084,8 @@
       <c r="F3" s="4">
         <v>3.6694489982354801</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2008</v>
       </c>
@@ -2255,17 +2104,16 @@
       <c r="F4" s="4">
         <v>4.8609591047632401</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2009</v>
       </c>
@@ -2284,17 +2132,16 @@
       <c r="F5" s="4">
         <v>2.0618484912970199</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2010</v>
       </c>
@@ -2313,17 +2160,13 @@
       <c r="F6" s="4">
         <v>2.5256639642495999</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2011</v>
       </c>
@@ -2342,17 +2185,13 @@
       <c r="F7" s="4">
         <v>1.79124353920566</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2012</v>
       </c>
@@ -2371,17 +2210,13 @@
       <c r="F8" s="4">
         <v>2.4529124165461802</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2013</v>
       </c>
@@ -2400,17 +2235,13 @@
       <c r="F9" s="4">
         <v>1.6227605415945401</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2014</v>
       </c>
@@ -2430,7 +2261,7 @@
         <v>1.0846780667129601</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2015</v>
       </c>
@@ -2450,7 +2281,7 @@
         <v>2.4143915378812499</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2016</v>
       </c>
@@ -2468,7 +2299,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2017</v>
       </c>
@@ -2480,7 +2311,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2018</v>
       </c>
@@ -2492,7 +2323,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2019</v>
       </c>
